--- a/data/trans_camb/P16A12-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A12-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A12-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A12-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,6</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,54</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,15</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,13</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,91</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,39</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,35</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,62</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,96</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,36; 8,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,32; 11,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,85; 9,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,29; 7,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,7; 9,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,31; 10,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,32; 7,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,17; 8,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,77; 9,02</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,69%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,61%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,54%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,97%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,03%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,55%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,69%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,09%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,86%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,36; 85,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,69; 113,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,32; 94,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,86; 68,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,95; 81,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,33; 87,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,05; 66,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,1; 76,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,8; 79,51</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,22</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,77; 1,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,16; 3,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,97; 5,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,1; 2,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,14; 3,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,05; 3,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,03; 1,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,49; 3,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,35; 4,12</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,21%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>78,73%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>134,74%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,72%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>123,55%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>122,25%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,79%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>94,02%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>126,87%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,44; 61,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,92; 146,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>76,46; 217,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,5; 162,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>45,3; 267,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,69; 241,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,39; 71,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>48,63; 145,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>80,89; 194,03</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,39</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,75; 3,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,08; 4,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,92; 6,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,63; 1,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,36; 1,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 2,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,76; 1,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,13; 2,51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,17; 3,61</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,11%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>101,6%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>215,17%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,86%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,32%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,3%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,67%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,34%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>139,11%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,79; 304,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,72; 385,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>57,53; 560,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,48; 242,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,63; 215,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,1; 295,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,49; 167,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,25; 228,18</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>46,2; 350,47</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,18</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,46; 2,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,53; 4,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,05; 4,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,18; 3,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,51; 3,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,09; 2,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,22; 2,98</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,51; 3,21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,41; 3,08</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,08%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,92%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,64%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,98%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,58%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,27%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,29%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,14%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,33%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,36; 57,51</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,81; 81,5</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,93; 89,89</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,19; 66,53</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,57; 55,31</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,28; 42,08</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,45; 55,15</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,83; 60,51</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,6; 57,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A12-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A12-Estudios-trans_camb.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,39</t>
+          <t>7,51</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,96</t>
+          <t>7,0</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,85; 9,49</t>
+          <t>2,8; 9,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,31; 10,18</t>
+          <t>4,45; 10,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,77; 9,02</t>
+          <t>4,81; 9,06</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>53,54%</t>
+          <t>53,5%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>57,55%</t>
+          <t>58,48%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>56,86%</t>
+          <t>57,17%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,32; 94,17</t>
+          <t>23,04; 93,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,33; 87,86</t>
+          <t>31,13; 89,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>35,8; 79,51</t>
+          <t>36,09; 79,31</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,32</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>2,7</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,97; 5,68</t>
+          <t>1,5; 5,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,11</t>
+          <t>0,49; 2,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,35; 4,12</t>
+          <t>1,6; 3,72</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>134,74%</t>
+          <t>108,67%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>122,25%</t>
+          <t>105,63%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>126,87%</t>
+          <t>106,45%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>76,46; 217,82</t>
+          <t>41,95; 185,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>44,69; 241,29</t>
+          <t>25,12; 213,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>80,89; 194,03</t>
+          <t>52,57; 172,26</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,98</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,92; 6,1</t>
+          <t>1,93; 6,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 2,2</t>
+          <t>-0,78; 2,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,61</t>
+          <t>1,17; 3,63</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>215,17%</t>
+          <t>214,26%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>58,3%</t>
+          <t>56,35%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>139,11%</t>
+          <t>139,58%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>57,53; 560,88</t>
+          <t>57,58; 559,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-34,1; 295,82</t>
+          <t>-35,13; 292,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>46,2; 350,47</t>
+          <t>46,56; 350,39</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>1,69</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,05; 4,47</t>
+          <t>0,55; 3,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,09; 2,32</t>
+          <t>-0,61; 2,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,41; 3,08</t>
+          <t>0,54; 2,64</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>57,64%</t>
+          <t>45,97%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>20,27%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>37,33%</t>
+          <t>29,05%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>32,93; 89,89</t>
+          <t>9,92; 77,3</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,28; 42,08</t>
+          <t>-9,43; 36,03</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>22,6; 57,25</t>
+          <t>10,15; 49,73</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A12-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A12-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,36; 8,74</t>
+          <t>2,56; 8,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,32; 11,42</t>
+          <t>4,39; 10,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,8; 9,43</t>
+          <t>2,56; 9,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,29; 7,88</t>
+          <t>2,39; 8,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,7; 9,32</t>
+          <t>2,62; 9,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,45; 10,23</t>
+          <t>4,57; 9,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,32; 7,57</t>
+          <t>3,16; 7,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,17; 8,84</t>
+          <t>4,18; 9,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,81; 9,06</t>
+          <t>4,81; 9,11</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,36; 85,45</t>
+          <t>18,61; 84,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>33,69; 113,69</t>
+          <t>32,38; 104,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>23,04; 93,72</t>
+          <t>19,04; 91,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,86; 68,72</t>
+          <t>16,94; 69,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,95; 81,15</t>
+          <t>18,06; 78,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,13; 89,4</t>
+          <t>32,51; 88,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>24,05; 66,03</t>
+          <t>23,69; 64,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,1; 76,42</t>
+          <t>31,35; 82,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>36,09; 79,31</t>
+          <t>36,52; 80,96</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 1,59</t>
+          <t>-0,9; 1,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,89</t>
+          <t>1,19; 3,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,5; 5,0</t>
+          <t>1,39; 4,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,1; 2,25</t>
+          <t>0,13; 2,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,55</t>
+          <t>1,06; 3,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,9</t>
+          <t>0,64; 2,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 1,55</t>
+          <t>-0,01; 1,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,49; 3,27</t>
+          <t>1,53; 3,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,6; 3,72</t>
+          <t>1,51; 3,68</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-21,44; 61,77</t>
+          <t>-23,64; 53,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>27,92; 146,08</t>
+          <t>30,93; 152,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>41,95; 185,39</t>
+          <t>41,2; 189,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,5; 162,42</t>
+          <t>3,4; 169,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>45,3; 267,33</t>
+          <t>40,22; 255,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,12; 213,4</t>
+          <t>27,02; 208,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 71,64</t>
+          <t>-0,81; 71,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>48,63; 145,96</t>
+          <t>52,07; 158,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>52,57; 172,26</t>
+          <t>53,05; 160,88</t>
         </is>
       </c>
     </row>
@@ -1117,27 +1117,27 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 3,33</t>
+          <t>-0,98; 3,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,08; 4,36</t>
+          <t>-0,01; 4,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,93; 6,09</t>
+          <t>2,02; 6,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 1,75</t>
+          <t>-1,61; 1,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 1,76</t>
+          <t>-1,43; 1,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1147,17 +1147,17 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 1,94</t>
+          <t>-0,7; 1,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 2,51</t>
+          <t>-0,17; 2,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,63</t>
+          <t>1,14; 3,71</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-35,79; 304,32</t>
+          <t>-42,92; 249,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 385,85</t>
+          <t>-14,15; 384,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>57,58; 559,5</t>
+          <t>61,18; 536,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-75,48; 242,27</t>
+          <t>-77,98; 279,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-59,63; 215,08</t>
+          <t>-60,29; 250,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-35,13; 292,12</t>
+          <t>-32,83; 314,44</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-36,49; 167,06</t>
+          <t>-34,17; 164,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-12,25; 228,18</t>
+          <t>-12,15; 205,93</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>46,56; 350,39</t>
+          <t>45,62; 341,13</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,92</t>
+          <t>0,5; 2,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,53; 4,09</t>
+          <t>1,58; 3,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,55; 3,97</t>
+          <t>0,73; 3,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,18; 3,77</t>
+          <t>1,29; 3,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,51; 3,04</t>
+          <t>0,55; 3,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 2,03</t>
+          <t>-0,57; 1,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,98</t>
+          <t>1,15; 2,9</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,51; 3,21</t>
+          <t>1,37; 3,18</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,64</t>
+          <t>0,62; 2,61</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,36; 57,51</t>
+          <t>7,94; 58,25</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>24,81; 81,5</t>
+          <t>23,83; 77,04</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>9,92; 77,3</t>
+          <t>13,2; 74,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>17,19; 66,53</t>
+          <t>18,93; 69,09</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,57; 55,31</t>
+          <t>8,44; 55,5</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 36,03</t>
+          <t>-8,16; 34,51</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>19,45; 55,15</t>
+          <t>18,85; 53,59</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>24,83; 60,51</t>
+          <t>21,96; 58,71</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>10,15; 49,73</t>
+          <t>10,47; 47,49</t>
         </is>
       </c>
     </row>
